--- a/数据整理/stocks/A股/创业板/300792-壹网壹创.xlsx
+++ b/数据整理/stocks/A股/创业板/300792-壹网壹创.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>139.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>89.35</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.16</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.8090</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005844</t>
+          <t>660001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东方人工智能主题混合</t>
+          <t>农银行业成长混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>87.01</t>
+          <t>22.10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9636</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006675</t>
+          <t>000698</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>宝盈品牌消费股票A</t>
+          <t>宝盈科技30灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>20.51</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7773</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006676</t>
+          <t>005967</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>宝盈品牌消费股票C</t>
+          <t>鹏华创新驱动混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1577</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000698</t>
+          <t>519125</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>宝盈科技30灵活配置混合</t>
+          <t>浦银安盛消费升级混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.38</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>519125</t>
+          <t>006675</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>浦银安盛消费升级混合A</t>
+          <t>宝盈品牌消费股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>86.13</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>660001</t>
+          <t>005844</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>农银行业成长混合A</t>
+          <t>东方人工智能主题混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.42</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -688,25 +768,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006346</t>
+          <t>006676</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>安信量化优选股票A</t>
+          <t>宝盈品牌消费股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>90.85</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>10</v>
       </c>
     </row>
@@ -716,25 +806,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006347</t>
+          <t>006346</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>安信量化优选股票C</t>
+          <t>安信量化优选股票A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>90.85</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1.85</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>10</v>
       </c>
     </row>
@@ -754,15 +854,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>86.13</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>5.64</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>6</v>
       </c>
     </row>
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005967</t>
+          <t>006347</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>鹏华创新驱动混合</t>
+          <t>安信量化优选股票C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -805,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,15 +946,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -856,15 +986,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>91.26</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.06</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.6264</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -884,15 +1024,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>92.15</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.00</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1260</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -912,15 +1062,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>82.72</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.37</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -940,15 +1100,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>82.72</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>4.37</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300792-壹网壹创.xlsx
+++ b/数据整理/stocks/A股/创业板/300792-壹网壹创.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1125,4 +1126,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>76.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0430</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005967</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1146</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300792-壹网壹创.xlsx
+++ b/数据整理/stocks/A股/创业板/300792-壹网壹创.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1258,4 +1259,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>62.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4913</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160603</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华普天收益混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>66.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信新得利混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007152</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺德策略精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300792-壹网壹创.xlsx
+++ b/数据整理/stocks/A股/创业板/300792-壹网壹创.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1467,4 +1468,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300792-壹网壹创.xlsx
+++ b/数据整理/stocks/A股/创业板/300792-壹网壹创.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1476,7 +1477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1487,17 +1488,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1507,14 +1528,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.73</v>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8856</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1523,14 +1566,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.16</v>
+          <t>011568</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>47.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4846</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1539,14 +1604,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.77</v>
+          <t>007152</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺德策略精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1555,13 +1642,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011569</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>47.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>11</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>7.8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300792-壹网壹创.xlsx
+++ b/数据整理/stocks/A股/创业板/300792-壹网壹创.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1685,7 +1686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1696,17 +1697,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1716,14 +1737,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.4</v>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0521</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1732,14 +1775,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.73</v>
+          <t>010695</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏磐益一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5280</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1748,14 +1813,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.16</v>
+          <t>014125</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1764,14 +1851,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>014126</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>4.77</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="6">
@@ -1780,13 +1989,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>11</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>7.8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300792-壹网壹创.xlsx
+++ b/数据整理/stocks/A股/创业板/300792-壹网壹创.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,471 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>206009</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华新兴产业混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>139.64</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.35</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>5.8090</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>4</v>
       </c>
+      <c r="D2" t="n">
+        <v>3.69</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>660001</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>农银行业成长混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>22.10</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.42</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9636</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.4</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000698</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>宝盈科技30灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>20.51</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.38</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.7773</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.73</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005967</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华创新驱动混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.80</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1577</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>519125</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>浦银安盛消费升级混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>86.13</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0327</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006675</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>宝盈品牌消费股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0227</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005844</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>东方人工智能主题混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>87.01</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0189</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006676</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>宝盈品牌消费股票C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0077</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006346</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>安信量化优选股票A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>90.85</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0061</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>519176</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>浦银安盛消费升级混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>86.13</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006347</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>安信量化优选股票C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>90.85</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -951,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -991,22 +649,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.43</t>
+          <t>44.95</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.26</t>
+          <t>90.17</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>6.79</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.6264</t>
+          <t>3.0521</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1019,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005967</t>
+          <t>010695</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华创新驱动混合</t>
+          <t>华夏磐益一年定期开放混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>18.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.15</t>
+          <t>82.41</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1260</t>
+          <t>0.5280</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1057,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519125</t>
+          <t>014125</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>浦银安盛消费升级混合A</t>
+          <t>华夏中证1000指数增强A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>82.72</t>
+          <t>89.75</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0179</t>
+          <t>0.0583</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1095,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519176</t>
+          <t>014126</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>浦银安盛消费升级混合C</t>
+          <t>华夏中证1000指数增强C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>82.72</t>
+          <t>89.75</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0017</t>
+          <t>0.0505</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1138,7 +796,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1159,7 +817,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1199,22 +857,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>76.14</t>
+          <t>60.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.97</t>
+          <t>89.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>6.43</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.0430</t>
+          <t>3.8856</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1227,36 +885,112 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005967</t>
+          <t>011568</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华创新驱动混合</t>
+          <t>鹏华产业升级混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>27.38</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.12</t>
+          <t>47.41</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1146</t>
+          <t>0.4846</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007152</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺德策略精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011569</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>47.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1478,7 +1212,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1499,7 +1233,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1539,22 +1273,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>60.43</t>
+          <t>76.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.99</t>
+          <t>89.97</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.43</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.8856</t>
+          <t>4.0430</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1567,112 +1301,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011568</t>
+          <t>005967</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华产业升级混合A</t>
+          <t>鹏华创新驱动混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>27.38</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>47.41</t>
+          <t>93.12</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4846</t>
+          <t>0.1146</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007152</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>诺德策略精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.95</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0244</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011569</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华产业升级混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>47.41</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0085</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1707,7 +1365,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1747,22 +1405,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>44.95</t>
+          <t>91.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.17</t>
+          <t>91.26</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.79</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.0521</t>
+          <t>4.6264</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1775,36 +1433,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010695</t>
+          <t>005967</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏磐益一年定期开放混合</t>
+          <t>鹏华创新驱动混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18.02</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>82.41</t>
+          <t>92.15</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5280</t>
+          <t>0.1260</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1813,36 +1471,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>014125</t>
+          <t>519125</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏中证1000指数增强A</t>
+          <t>浦银安盛消费升级混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.75</t>
+          <t>82.72</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0583</t>
+          <t>0.0179</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1851,36 +1509,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>014126</t>
+          <t>519176</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏中证1000指数增强C</t>
+          <t>浦银安盛消费升级混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.09</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.75</t>
+          <t>82.72</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0505</t>
+          <t>0.0017</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1894,128 +1552,470 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>139.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.8090</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
-        <v>3.69</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>660001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银行业成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9636</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000698</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈科技30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7773</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005967</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1577</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.73</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.16</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.77</v>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>11</v>
-      </c>
-      <c r="D7" t="n">
-        <v>7.8</v>
+          <t>006675</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006676</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>